--- a/BOMs/SolarChargerV2.xlsx
+++ b/BOMs/SolarChargerV2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmul\OneDrive\Documents\GitHub\SolarCharger\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{285C2E54-34E9-43E1-B1C7-5FA467243FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{42F2F3EB-ADCE-4D0B-9C97-FD061E546530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolarChargerV2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="85" uniqueCount="77">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="85" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -53,18 +53,12 @@
     <t>C7</t>
   </si>
   <si>
-    <t>CP_Elec_3x5.3</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>C_0603_1608Metric_Pad1.08x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>1n</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C_1812_4532Metric_Pad1.57x3.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>C_2220_5650Metric_Pad1.97x5.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>29.4k</t>
   </si>
   <si>
@@ -158,18 +143,12 @@
     <t>R7</t>
   </si>
   <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>R_2816_7142Metric_Pad3.20x4.45mm_HandSolder</t>
-  </si>
-  <si>
     <t>25m</t>
   </si>
   <si>
@@ -264,12 +243,36 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -1121,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>1.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1188,19 +1191,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>0.74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1208,10 +1211,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1223,7 +1226,7 @@
         <v>0.45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1231,22 +1234,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="3">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1254,22 +1257,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>0.1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1277,22 +1280,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1300,22 +1303,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1323,22 +1326,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
         <v>0.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1346,22 +1349,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
         <v>1.66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1369,22 +1372,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <v>0.51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1392,22 +1395,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3">
         <v>2.95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1415,22 +1418,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F13" s="3">
         <v>1.01</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1438,22 +1441,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
         <v>0.1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1461,10 +1464,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1476,7 +1479,7 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1484,22 +1487,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3">
         <v>0.1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1507,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1530,22 +1533,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3">
         <v>0.1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1553,22 +1556,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3">
         <v>0.49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1576,10 +1579,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1591,7 +1594,7 @@
         <v>0.2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1599,27 +1602,27 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3">
         <v>17.989999999999998</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3">
         <f>SUM(F2:F21)</f>
@@ -1628,26 +1631,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G17" r:id="rId4"/>
-    <hyperlink ref="G20" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G16" r:id="rId8"/>
-    <hyperlink ref="G15" r:id="rId9"/>
-    <hyperlink ref="G5" r:id="rId10"/>
-    <hyperlink ref="G19" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G4" r:id="rId13"/>
-    <hyperlink ref="G9" r:id="rId14"/>
-    <hyperlink ref="G14" r:id="rId15"/>
-    <hyperlink ref="G18" r:id="rId16"/>
-    <hyperlink ref="G11" r:id="rId17"/>
-    <hyperlink ref="G10" r:id="rId18"/>
-    <hyperlink ref="G7" r:id="rId19"/>
-    <hyperlink ref="G3" r:id="rId20"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOMs/SolarChargerV2.xlsx
+++ b/BOMs/SolarChargerV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmul\OneDrive\Documents\GitHub\SolarCharger\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{42F2F3EB-ADCE-4D0B-9C97-FD061E546530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A04D34B7-9FD1-4AB7-90D5-7B0BD6A044BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="85" uniqueCount="78">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -179,24 +179,9 @@
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0720RL/727039?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GEnADIgC6AvkA</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/walsin-technology-corporation/0402B823K160CT/9354730</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/CC0603KRX7R9BB201/5883801</t>
-  </si>
-  <si>
     <t>200p</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0751K1L/727284?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AKwCMA0sQDIgC6AvkA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM1555C1H102JA01J/2543864?s=N4IgTCBcDaIOICUCyBGArBgwigEigDGAFICC%2BKRIAugL5A</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CSR1206FK25L0/1646093?s=N4IgTCBcDaIMIGUBKBGMAGAbAMQNJgFYAZdEAXQF8g</t>
   </si>
   <si>
@@ -206,9 +191,6 @@
     <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM21BR71C105MA01L/586691?s=N4IgTCBcDaIOICUCyYCMAhBB2VBhVADAKxICCBqAMiALoC%2BQA</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW040229K4FKED/1178172</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>https://www.digikey.com/en/products/detail/molex/0676430910/917619</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM155R71C104KA88D/675947?s=N4IgTCBcDaIOICUCyBGArGhB2FBhFADACwDSAggBwUAiIAugL5A</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/murata-electronics/GRM31CR61A476KE15L/4359666 </t>
   </si>
   <si>
@@ -257,16 +236,37 @@
     <t>Resistor_SMD:R_1206_3216Metric</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/walsin-technology-corporation/0805N102J500CT/9355088</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/0603YC823KAT2A/563348</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012207045/5453900</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/CC0805KRX7R9BB201/5884236</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6ENF2942V/111566</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/M55342K06B100DRS3/2941801</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0805FR-0751K1L/728015</t>
+  </si>
+  <si>
+    <t>cart</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +598,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,13 +768,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1125,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,7 +1187,7 @@
         <v>1.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1191,19 +1198,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3">
         <v>0.74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1214,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1237,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1249,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1260,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1269,21 +1276,21 @@
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1295,30 +1302,30 @@
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1329,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1341,7 +1348,7 @@
         <v>0.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1364,7 +1371,7 @@
         <v>1.66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1375,19 +1382,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1427,24 +1434,24 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3">
         <v>1.01</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1456,18 +1463,18 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1476,21 +1483,21 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0.1</v>
+        <v>1.63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1502,10 +1509,10 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1528,7 +1535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1548,10 +1555,10 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1559,7 +1566,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1571,10 +1578,10 @@
         <v>0.49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1594,10 +1601,10 @@
         <v>0.2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1620,13 +1627,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3">
         <f>SUM(F2:F21)</f>
-        <v>28.9</v>
+        <v>30.549999999999997</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/SolarChargerV2.xlsx
+++ b/BOMs/SolarChargerV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmul\OneDrive\Documents\GitHub\SolarCharger\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A04D34B7-9FD1-4AB7-90D5-7B0BD6A044BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4AE2F5FD-8040-4168-A6A5-F564BDDE00C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1640,6 +1640,12 @@
       </c>
       <c r="H23" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>FDIST(2.6295,10,60)</f>
+        <v>1.005741712842814E-2</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/SolarChargerV2.xlsx
+++ b/BOMs/SolarChargerV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmul\OneDrive\Documents\GitHub\SolarCharger\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4AE2F5FD-8040-4168-A6A5-F564BDDE00C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{67041DAE-8F7D-4AAA-BB0F-A45A2122F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="78">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Solar_Cell</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Treedix-Polysilicon-Polycrystalline-Encapsulated-Waterproof/dp/B0834MQDT8/ref=sr_1_10?crid=ZON6KL1ZVZ52&amp;keywords=10W%2Bsolar%2Bpanel&amp;qid=1649971502&amp;sprefix=10w%2Bsolar%2Bpanel%2Caps%2C145&amp;sr=8-10&amp;th=1</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>cart</t>
+  </si>
+  <si>
+    <t>amazon.com/dp/B00OZC19AY/ref=emc_bcc_2_i?th=1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/1jf4t9wm</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1187,7 +1190,7 @@
         <v>1.81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1198,19 +1201,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3">
         <v>0.74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1221,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1233,7 +1236,7 @@
         <v>0.45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1244,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1256,7 +1259,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1267,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1279,7 +1282,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1290,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1302,7 +1305,7 @@
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1313,19 +1316,19 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3">
         <v>0.15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1336,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1348,7 +1351,7 @@
         <v>0.19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1371,7 +1374,7 @@
         <v>1.66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1382,19 +1385,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3">
         <v>0.54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1417,7 +1420,7 @@
         <v>2.95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1434,13 +1437,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3">
         <v>1.01</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1451,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1474,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1486,7 +1489,7 @@
         <v>1.63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1497,7 +1500,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1509,7 +1512,7 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1520,7 +1523,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1543,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1555,7 +1558,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1566,7 +1569,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1578,7 +1581,7 @@
         <v>0.49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1589,7 +1592,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1601,7 +1604,7 @@
         <v>0.2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1624,33 +1627,27 @@
         <v>17.989999999999998</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3">
         <f>SUM(F2:F21)</f>
         <v>30.549999999999997</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f>FDIST(2.6295,10,60)</f>
-        <v>1.005741712842814E-2</v>
+        <v>76</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G21" r:id="rId1" display="https://www.amazon.com/Treedix-Polysilicon-Polycrystalline-Encapsulated-Waterproof/dp/B0834MQDT8/ref=sr_1_10?crid=ZON6KL1ZVZ52&amp;keywords=10W%2Bsolar%2Bpanel&amp;qid=1649971502&amp;sprefix=10w%2Bsolar%2Bpanel%2Caps%2C145&amp;sr=8-10&amp;th=1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
@@ -1670,6 +1667,7 @@
     <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="G7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="G3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H23" r:id="rId21" xr:uid="{A43324FC-A43A-495C-891E-D300313E955A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
